--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=7.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=7.xlsx
@@ -534,58 +534,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>712</v>
+        <v>448</v>
       </c>
       <c r="C2" t="n">
-        <v>572</v>
+        <v>450</v>
       </c>
       <c r="D2" t="n">
-        <v>585</v>
+        <v>442</v>
       </c>
       <c r="E2" t="n">
-        <v>627</v>
+        <v>390</v>
       </c>
       <c r="F2" t="n">
-        <v>691</v>
+        <v>429</v>
       </c>
       <c r="G2" t="n">
-        <v>592</v>
+        <v>444</v>
       </c>
       <c r="H2" t="n">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="I2" t="n">
-        <v>425</v>
+        <v>520</v>
       </c>
       <c r="J2" t="n">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="K2" t="n">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="L2" t="n">
-        <v>457</v>
+        <v>532</v>
       </c>
       <c r="M2" t="n">
-        <v>591</v>
+        <v>465</v>
       </c>
       <c r="N2" t="n">
-        <v>581</v>
+        <v>367</v>
       </c>
       <c r="O2" t="n">
-        <v>612</v>
+        <v>335</v>
       </c>
       <c r="P2" t="n">
-        <v>544</v>
+        <v>266</v>
       </c>
       <c r="Q2" t="n">
-        <v>364</v>
+        <v>266</v>
       </c>
       <c r="R2" t="n">
-        <v>8269</v>
+        <v>6337</v>
       </c>
       <c r="S2" t="n">
-        <v>712</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3">
@@ -595,58 +595,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="C3" t="n">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D3" t="n">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="E3" t="n">
-        <v>545</v>
+        <v>412</v>
       </c>
       <c r="F3" t="n">
-        <v>600</v>
+        <v>453</v>
       </c>
       <c r="G3" t="n">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="H3" t="n">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="I3" t="n">
-        <v>427</v>
+        <v>568</v>
       </c>
       <c r="J3" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K3" t="n">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="L3" t="n">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="M3" t="n">
-        <v>464</v>
+        <v>404</v>
       </c>
       <c r="N3" t="n">
-        <v>519</v>
+        <v>295</v>
       </c>
       <c r="O3" t="n">
+        <v>299</v>
+      </c>
+      <c r="P3" t="n">
+        <v>299</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>295</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6303</v>
+      </c>
+      <c r="S3" t="n">
         <v>568</v>
-      </c>
-      <c r="P3" t="n">
-        <v>571</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>345</v>
-      </c>
-      <c r="R3" t="n">
-        <v>7480</v>
-      </c>
-      <c r="S3" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -656,58 +656,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>600</v>
+        <v>484</v>
       </c>
       <c r="C4" t="n">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D4" t="n">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="E4" t="n">
-        <v>545</v>
+        <v>423</v>
       </c>
       <c r="F4" t="n">
-        <v>600</v>
+        <v>449</v>
       </c>
       <c r="G4" t="n">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="H4" t="n">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="I4" t="n">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="J4" t="n">
+        <v>392</v>
+      </c>
+      <c r="K4" t="n">
+        <v>379</v>
+      </c>
+      <c r="L4" t="n">
+        <v>487</v>
+      </c>
+      <c r="M4" t="n">
+        <v>405</v>
+      </c>
+      <c r="N4" t="n">
         <v>345</v>
       </c>
-      <c r="K4" t="n">
-        <v>456</v>
-      </c>
-      <c r="L4" t="n">
-        <v>428</v>
-      </c>
-      <c r="M4" t="n">
-        <v>464</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>332</v>
+      </c>
+      <c r="P4" t="n">
+        <v>321</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>321</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6460</v>
+      </c>
+      <c r="S4" t="n">
         <v>519</v>
-      </c>
-      <c r="O4" t="n">
-        <v>568</v>
-      </c>
-      <c r="P4" t="n">
-        <v>571</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>345</v>
-      </c>
-      <c r="R4" t="n">
-        <v>7480</v>
-      </c>
-      <c r="S4" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="5">
@@ -717,58 +717,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>700</v>
+        <v>491</v>
       </c>
       <c r="C5" t="n">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="D5" t="n">
-        <v>581</v>
+        <v>482</v>
       </c>
       <c r="E5" t="n">
-        <v>630</v>
+        <v>391</v>
       </c>
       <c r="F5" t="n">
-        <v>697</v>
+        <v>472</v>
       </c>
       <c r="G5" t="n">
-        <v>585</v>
+        <v>517</v>
       </c>
       <c r="H5" t="n">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="I5" t="n">
-        <v>485</v>
+        <v>624</v>
       </c>
       <c r="J5" t="n">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="K5" t="n">
-        <v>435</v>
+        <v>518</v>
       </c>
       <c r="L5" t="n">
-        <v>496</v>
+        <v>624</v>
       </c>
       <c r="M5" t="n">
-        <v>649</v>
+        <v>552</v>
       </c>
       <c r="N5" t="n">
-        <v>614</v>
+        <v>402</v>
       </c>
       <c r="O5" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="P5" t="n">
-        <v>602</v>
+        <v>376</v>
       </c>
       <c r="Q5" t="n">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="R5" t="n">
-        <v>8583</v>
+        <v>7467</v>
       </c>
       <c r="S5" t="n">
-        <v>700</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6">
@@ -778,58 +778,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>686</v>
+        <v>457</v>
       </c>
       <c r="C6" t="n">
-        <v>570</v>
+        <v>468</v>
       </c>
       <c r="D6" t="n">
-        <v>575</v>
+        <v>459</v>
       </c>
       <c r="E6" t="n">
-        <v>620</v>
+        <v>391</v>
       </c>
       <c r="F6" t="n">
-        <v>688</v>
+        <v>451</v>
       </c>
       <c r="G6" t="n">
-        <v>589</v>
+        <v>483</v>
       </c>
       <c r="H6" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I6" t="n">
-        <v>435</v>
+        <v>568</v>
       </c>
       <c r="J6" t="n">
-        <v>361</v>
+        <v>451</v>
       </c>
       <c r="K6" t="n">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="L6" t="n">
-        <v>515</v>
+        <v>594</v>
       </c>
       <c r="M6" t="n">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="N6" t="n">
-        <v>524</v>
+        <v>394</v>
       </c>
       <c r="O6" t="n">
-        <v>565</v>
+        <v>436</v>
       </c>
       <c r="P6" t="n">
-        <v>638</v>
+        <v>348</v>
       </c>
       <c r="Q6" t="n">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="R6" t="n">
-        <v>8272</v>
+        <v>6930</v>
       </c>
       <c r="S6" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7">
@@ -839,58 +839,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>600</v>
+        <v>484</v>
       </c>
       <c r="C7" t="n">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D7" t="n">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="E7" t="n">
-        <v>545</v>
+        <v>423</v>
       </c>
       <c r="F7" t="n">
-        <v>600</v>
+        <v>449</v>
       </c>
       <c r="G7" t="n">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="H7" t="n">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="I7" t="n">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="J7" t="n">
+        <v>392</v>
+      </c>
+      <c r="K7" t="n">
+        <v>379</v>
+      </c>
+      <c r="L7" t="n">
+        <v>487</v>
+      </c>
+      <c r="M7" t="n">
+        <v>405</v>
+      </c>
+      <c r="N7" t="n">
         <v>345</v>
       </c>
-      <c r="K7" t="n">
-        <v>456</v>
-      </c>
-      <c r="L7" t="n">
-        <v>428</v>
-      </c>
-      <c r="M7" t="n">
-        <v>464</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
+        <v>332</v>
+      </c>
+      <c r="P7" t="n">
+        <v>321</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>321</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6460</v>
+      </c>
+      <c r="S7" t="n">
         <v>519</v>
-      </c>
-      <c r="O7" t="n">
-        <v>568</v>
-      </c>
-      <c r="P7" t="n">
-        <v>571</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>345</v>
-      </c>
-      <c r="R7" t="n">
-        <v>7480</v>
-      </c>
-      <c r="S7" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -900,58 +900,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>700</v>
+        <v>491</v>
       </c>
       <c r="C8" t="n">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="D8" t="n">
-        <v>581</v>
+        <v>482</v>
       </c>
       <c r="E8" t="n">
-        <v>630</v>
+        <v>391</v>
       </c>
       <c r="F8" t="n">
-        <v>697</v>
+        <v>472</v>
       </c>
       <c r="G8" t="n">
-        <v>585</v>
+        <v>517</v>
       </c>
       <c r="H8" t="n">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="I8" t="n">
-        <v>485</v>
+        <v>624</v>
       </c>
       <c r="J8" t="n">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="K8" t="n">
-        <v>435</v>
+        <v>518</v>
       </c>
       <c r="L8" t="n">
-        <v>496</v>
+        <v>624</v>
       </c>
       <c r="M8" t="n">
-        <v>649</v>
+        <v>552</v>
       </c>
       <c r="N8" t="n">
-        <v>614</v>
+        <v>402</v>
       </c>
       <c r="O8" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="P8" t="n">
-        <v>602</v>
+        <v>376</v>
       </c>
       <c r="Q8" t="n">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="R8" t="n">
-        <v>8583</v>
+        <v>7467</v>
       </c>
       <c r="S8" t="n">
-        <v>700</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9">
@@ -961,58 +961,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>686</v>
+        <v>457</v>
       </c>
       <c r="C9" t="n">
-        <v>570</v>
+        <v>468</v>
       </c>
       <c r="D9" t="n">
-        <v>575</v>
+        <v>459</v>
       </c>
       <c r="E9" t="n">
-        <v>620</v>
+        <v>391</v>
       </c>
       <c r="F9" t="n">
-        <v>688</v>
+        <v>451</v>
       </c>
       <c r="G9" t="n">
-        <v>589</v>
+        <v>483</v>
       </c>
       <c r="H9" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I9" t="n">
-        <v>435</v>
+        <v>568</v>
       </c>
       <c r="J9" t="n">
-        <v>361</v>
+        <v>451</v>
       </c>
       <c r="K9" t="n">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="L9" t="n">
-        <v>515</v>
+        <v>594</v>
       </c>
       <c r="M9" t="n">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="N9" t="n">
-        <v>524</v>
+        <v>394</v>
       </c>
       <c r="O9" t="n">
-        <v>565</v>
+        <v>436</v>
       </c>
       <c r="P9" t="n">
-        <v>638</v>
+        <v>348</v>
       </c>
       <c r="Q9" t="n">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="R9" t="n">
-        <v>8272</v>
+        <v>6930</v>
       </c>
       <c r="S9" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10">
@@ -1022,58 +1022,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>712</v>
+        <v>538</v>
       </c>
       <c r="C10" t="n">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D10" t="n">
-        <v>585</v>
+        <v>530</v>
       </c>
       <c r="E10" t="n">
-        <v>627</v>
+        <v>467</v>
       </c>
       <c r="F10" t="n">
-        <v>691</v>
+        <v>506</v>
       </c>
       <c r="G10" t="n">
-        <v>592</v>
+        <v>534</v>
       </c>
       <c r="H10" t="n">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="I10" t="n">
-        <v>425</v>
+        <v>583</v>
       </c>
       <c r="J10" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K10" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L10" t="n">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="M10" t="n">
-        <v>591</v>
+        <v>413</v>
       </c>
       <c r="N10" t="n">
-        <v>581</v>
+        <v>302</v>
       </c>
       <c r="O10" t="n">
-        <v>612</v>
+        <v>349</v>
       </c>
       <c r="P10" t="n">
-        <v>544</v>
+        <v>309</v>
       </c>
       <c r="Q10" t="n">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="R10" t="n">
-        <v>8269</v>
+        <v>6907</v>
       </c>
       <c r="S10" t="n">
-        <v>712</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11">
@@ -1083,58 +1083,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>564</v>
+        <v>407</v>
       </c>
       <c r="C11" t="n">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D11" t="n">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="E11" t="n">
-        <v>491</v>
+        <v>328</v>
       </c>
       <c r="F11" t="n">
-        <v>566</v>
+        <v>385</v>
       </c>
       <c r="G11" t="n">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="H11" t="n">
-        <v>362</v>
+        <v>465</v>
       </c>
       <c r="I11" t="n">
-        <v>416</v>
+        <v>627</v>
       </c>
       <c r="J11" t="n">
-        <v>201</v>
+        <v>530</v>
       </c>
       <c r="K11" t="n">
-        <v>353</v>
+        <v>477</v>
       </c>
       <c r="L11" t="n">
-        <v>499</v>
+        <v>688</v>
       </c>
       <c r="M11" t="n">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="N11" t="n">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="O11" t="n">
-        <v>506</v>
+        <v>403</v>
       </c>
       <c r="P11" t="n">
-        <v>515</v>
+        <v>366</v>
       </c>
       <c r="Q11" t="n">
-        <v>201</v>
+        <v>328</v>
       </c>
       <c r="R11" t="n">
-        <v>6787</v>
+        <v>6942</v>
       </c>
       <c r="S11" t="n">
-        <v>566</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12">
@@ -1144,58 +1144,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600</v>
+        <v>484</v>
       </c>
       <c r="C12" t="n">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D12" t="n">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="E12" t="n">
-        <v>545</v>
+        <v>423</v>
       </c>
       <c r="F12" t="n">
-        <v>600</v>
+        <v>449</v>
       </c>
       <c r="G12" t="n">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="H12" t="n">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="I12" t="n">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="J12" t="n">
+        <v>392</v>
+      </c>
+      <c r="K12" t="n">
+        <v>379</v>
+      </c>
+      <c r="L12" t="n">
+        <v>487</v>
+      </c>
+      <c r="M12" t="n">
+        <v>405</v>
+      </c>
+      <c r="N12" t="n">
         <v>345</v>
       </c>
-      <c r="K12" t="n">
-        <v>456</v>
-      </c>
-      <c r="L12" t="n">
-        <v>428</v>
-      </c>
-      <c r="M12" t="n">
-        <v>464</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
+        <v>332</v>
+      </c>
+      <c r="P12" t="n">
+        <v>321</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>321</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6460</v>
+      </c>
+      <c r="S12" t="n">
         <v>519</v>
-      </c>
-      <c r="O12" t="n">
-        <v>568</v>
-      </c>
-      <c r="P12" t="n">
-        <v>571</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>345</v>
-      </c>
-      <c r="R12" t="n">
-        <v>7480</v>
-      </c>
-      <c r="S12" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -1205,58 +1205,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>712</v>
+        <v>536</v>
       </c>
       <c r="C13" t="n">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="D13" t="n">
-        <v>585</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>627</v>
+        <v>459</v>
       </c>
       <c r="F13" t="n">
-        <v>691</v>
+        <v>493</v>
       </c>
       <c r="G13" t="n">
-        <v>592</v>
+        <v>529</v>
       </c>
       <c r="H13" t="n">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="I13" t="n">
-        <v>425</v>
+        <v>590</v>
       </c>
       <c r="J13" t="n">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="K13" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L13" t="n">
-        <v>457</v>
+        <v>547</v>
       </c>
       <c r="M13" t="n">
-        <v>591</v>
+        <v>371</v>
       </c>
       <c r="N13" t="n">
-        <v>581</v>
+        <v>336</v>
       </c>
       <c r="O13" t="n">
-        <v>612</v>
+        <v>360</v>
       </c>
       <c r="P13" t="n">
-        <v>544</v>
+        <v>312</v>
       </c>
       <c r="Q13" t="n">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="R13" t="n">
-        <v>8269</v>
+        <v>6978</v>
       </c>
       <c r="S13" t="n">
-        <v>712</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14">
@@ -1266,58 +1266,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>600</v>
+        <v>484</v>
       </c>
       <c r="C14" t="n">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="D14" t="n">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="E14" t="n">
-        <v>545</v>
+        <v>423</v>
       </c>
       <c r="F14" t="n">
-        <v>600</v>
+        <v>449</v>
       </c>
       <c r="G14" t="n">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="H14" t="n">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="I14" t="n">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="J14" t="n">
+        <v>392</v>
+      </c>
+      <c r="K14" t="n">
+        <v>379</v>
+      </c>
+      <c r="L14" t="n">
+        <v>487</v>
+      </c>
+      <c r="M14" t="n">
+        <v>405</v>
+      </c>
+      <c r="N14" t="n">
         <v>345</v>
       </c>
-      <c r="K14" t="n">
-        <v>456</v>
-      </c>
-      <c r="L14" t="n">
-        <v>428</v>
-      </c>
-      <c r="M14" t="n">
-        <v>464</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
+        <v>332</v>
+      </c>
+      <c r="P14" t="n">
+        <v>321</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>321</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6460</v>
+      </c>
+      <c r="S14" t="n">
         <v>519</v>
-      </c>
-      <c r="O14" t="n">
-        <v>568</v>
-      </c>
-      <c r="P14" t="n">
-        <v>571</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>345</v>
-      </c>
-      <c r="R14" t="n">
-        <v>7480</v>
-      </c>
-      <c r="S14" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -1327,58 +1327,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>712</v>
+        <v>484</v>
       </c>
       <c r="C15" t="n">
-        <v>572</v>
+        <v>493</v>
       </c>
       <c r="D15" t="n">
-        <v>585</v>
+        <v>474</v>
       </c>
       <c r="E15" t="n">
-        <v>627</v>
+        <v>423</v>
       </c>
       <c r="F15" t="n">
-        <v>691</v>
+        <v>449</v>
       </c>
       <c r="G15" t="n">
-        <v>592</v>
+        <v>469</v>
       </c>
       <c r="H15" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I15" t="n">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="J15" t="n">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="K15" t="n">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="L15" t="n">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="M15" t="n">
-        <v>591</v>
+        <v>405</v>
       </c>
       <c r="N15" t="n">
-        <v>581</v>
+        <v>345</v>
       </c>
       <c r="O15" t="n">
-        <v>612</v>
+        <v>332</v>
       </c>
       <c r="P15" t="n">
-        <v>544</v>
+        <v>321</v>
       </c>
       <c r="Q15" t="n">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="R15" t="n">
-        <v>8269</v>
+        <v>6460</v>
       </c>
       <c r="S15" t="n">
-        <v>712</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16">
@@ -1388,58 +1388,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>712</v>
+        <v>484</v>
       </c>
       <c r="C16" t="n">
-        <v>572</v>
+        <v>493</v>
       </c>
       <c r="D16" t="n">
-        <v>585</v>
+        <v>474</v>
       </c>
       <c r="E16" t="n">
-        <v>627</v>
+        <v>423</v>
       </c>
       <c r="F16" t="n">
-        <v>691</v>
+        <v>449</v>
       </c>
       <c r="G16" t="n">
-        <v>592</v>
+        <v>469</v>
       </c>
       <c r="H16" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I16" t="n">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="J16" t="n">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="K16" t="n">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="L16" t="n">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="M16" t="n">
-        <v>591</v>
+        <v>405</v>
       </c>
       <c r="N16" t="n">
-        <v>581</v>
+        <v>345</v>
       </c>
       <c r="O16" t="n">
-        <v>612</v>
+        <v>332</v>
       </c>
       <c r="P16" t="n">
-        <v>544</v>
+        <v>321</v>
       </c>
       <c r="Q16" t="n">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="R16" t="n">
-        <v>8269</v>
+        <v>6460</v>
       </c>
       <c r="S16" t="n">
-        <v>712</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17">
@@ -1449,58 +1449,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>712</v>
+        <v>484</v>
       </c>
       <c r="C17" t="n">
-        <v>572</v>
+        <v>493</v>
       </c>
       <c r="D17" t="n">
-        <v>585</v>
+        <v>474</v>
       </c>
       <c r="E17" t="n">
-        <v>627</v>
+        <v>423</v>
       </c>
       <c r="F17" t="n">
-        <v>691</v>
+        <v>449</v>
       </c>
       <c r="G17" t="n">
-        <v>592</v>
+        <v>469</v>
       </c>
       <c r="H17" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I17" t="n">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="J17" t="n">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="K17" t="n">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="L17" t="n">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="M17" t="n">
-        <v>591</v>
+        <v>405</v>
       </c>
       <c r="N17" t="n">
-        <v>581</v>
+        <v>345</v>
       </c>
       <c r="O17" t="n">
-        <v>612</v>
+        <v>332</v>
       </c>
       <c r="P17" t="n">
-        <v>544</v>
+        <v>321</v>
       </c>
       <c r="Q17" t="n">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="R17" t="n">
-        <v>8269</v>
+        <v>6460</v>
       </c>
       <c r="S17" t="n">
-        <v>712</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -1621,58 +1621,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>510</v>
+        <v>141</v>
       </c>
       <c r="C2" t="n">
-        <v>423</v>
+        <v>124</v>
       </c>
       <c r="D2" t="n">
-        <v>415</v>
+        <v>135</v>
       </c>
       <c r="E2" t="n">
-        <v>422</v>
+        <v>154</v>
       </c>
       <c r="F2" t="n">
-        <v>434</v>
+        <v>125</v>
       </c>
       <c r="G2" t="n">
-        <v>405</v>
+        <v>102</v>
       </c>
       <c r="H2" t="n">
-        <v>403</v>
+        <v>141</v>
       </c>
       <c r="I2" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
-        <v>126</v>
+        <v>-154</v>
       </c>
       <c r="L2" t="n">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="M2" t="n">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="N2" t="n">
-        <v>373</v>
+        <v>140</v>
       </c>
       <c r="O2" t="n">
-        <v>365</v>
+        <v>58</v>
       </c>
       <c r="P2" t="n">
-        <v>169</v>
+        <v>-106</v>
       </c>
       <c r="Q2" t="n">
-        <v>40</v>
+        <v>-154</v>
       </c>
       <c r="R2" t="n">
-        <v>4742</v>
+        <v>1234</v>
       </c>
       <c r="S2" t="n">
-        <v>510</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -1682,58 +1682,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="C3" t="n">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="D3" t="n">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="E3" t="n">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="F3" t="n">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="G3" t="n">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="H3" t="n">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="J3" t="n">
-        <v>142</v>
+        <v>-6</v>
       </c>
       <c r="K3" t="n">
-        <v>242</v>
+        <v>-88</v>
       </c>
       <c r="L3" t="n">
-        <v>107</v>
+        <v>-32</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>-37</v>
       </c>
       <c r="N3" t="n">
-        <v>249</v>
+        <v>-4</v>
       </c>
       <c r="O3" t="n">
-        <v>277</v>
+        <v>-14</v>
       </c>
       <c r="P3" t="n">
-        <v>223</v>
+        <v>-40</v>
       </c>
       <c r="Q3" t="n">
-        <v>44</v>
+        <v>-88</v>
       </c>
       <c r="R3" t="n">
-        <v>3164</v>
+        <v>1166</v>
       </c>
       <c r="S3" t="n">
-        <v>286</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4">
@@ -1743,58 +1743,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="C4" t="n">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="D4" t="n">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="E4" t="n">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="F4" t="n">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="G4" t="n">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="H4" t="n">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="I4" t="n">
-        <v>44</v>
+        <v>-33</v>
       </c>
       <c r="J4" t="n">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="K4" t="n">
-        <v>242</v>
+        <v>-62</v>
       </c>
       <c r="L4" t="n">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>58</v>
+        <v>-35</v>
       </c>
       <c r="N4" t="n">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="O4" t="n">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="P4" t="n">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>44</v>
+        <v>-62</v>
       </c>
       <c r="R4" t="n">
-        <v>3164</v>
+        <v>1480</v>
       </c>
       <c r="S4" t="n">
-        <v>286</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
@@ -1804,58 +1804,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>486</v>
+        <v>227</v>
       </c>
       <c r="C5" t="n">
-        <v>369</v>
+        <v>246</v>
       </c>
       <c r="D5" t="n">
-        <v>407</v>
+        <v>215</v>
       </c>
       <c r="E5" t="n">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="F5" t="n">
-        <v>446</v>
+        <v>211</v>
       </c>
       <c r="G5" t="n">
-        <v>391</v>
+        <v>248</v>
       </c>
       <c r="H5" t="n">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="I5" t="n">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="J5" t="n">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="K5" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="L5" t="n">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="M5" t="n">
-        <v>428</v>
+        <v>259</v>
       </c>
       <c r="N5" t="n">
-        <v>439</v>
+        <v>210</v>
       </c>
       <c r="O5" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="P5" t="n">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="Q5" t="n">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="R5" t="n">
-        <v>5370</v>
+        <v>3494</v>
       </c>
       <c r="S5" t="n">
-        <v>486</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6">
@@ -1865,58 +1865,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>458</v>
+        <v>159</v>
       </c>
       <c r="C6" t="n">
-        <v>419</v>
+        <v>160</v>
       </c>
       <c r="D6" t="n">
-        <v>395</v>
+        <v>169</v>
       </c>
       <c r="E6" t="n">
-        <v>408</v>
+        <v>156</v>
       </c>
       <c r="F6" t="n">
-        <v>428</v>
+        <v>169</v>
       </c>
       <c r="G6" t="n">
-        <v>399</v>
+        <v>180</v>
       </c>
       <c r="H6" t="n">
-        <v>391</v>
+        <v>187</v>
       </c>
       <c r="I6" t="n">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="J6" t="n">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="K6" t="n">
-        <v>296</v>
+        <v>56</v>
       </c>
       <c r="L6" t="n">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="M6" t="n">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="N6" t="n">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="O6" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="P6" t="n">
-        <v>357</v>
+        <v>58</v>
       </c>
       <c r="Q6" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R6" t="n">
-        <v>4748</v>
+        <v>2420</v>
       </c>
       <c r="S6" t="n">
-        <v>458</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7">
@@ -1926,58 +1926,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="C7" t="n">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="D7" t="n">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="E7" t="n">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="F7" t="n">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="G7" t="n">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="H7" t="n">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="I7" t="n">
-        <v>44</v>
+        <v>-33</v>
       </c>
       <c r="J7" t="n">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="K7" t="n">
-        <v>242</v>
+        <v>-62</v>
       </c>
       <c r="L7" t="n">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>58</v>
+        <v>-35</v>
       </c>
       <c r="N7" t="n">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="O7" t="n">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>44</v>
+        <v>-62</v>
       </c>
       <c r="R7" t="n">
-        <v>3164</v>
+        <v>1480</v>
       </c>
       <c r="S7" t="n">
-        <v>286</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8">
@@ -1987,58 +1987,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>486</v>
+        <v>227</v>
       </c>
       <c r="C8" t="n">
-        <v>369</v>
+        <v>246</v>
       </c>
       <c r="D8" t="n">
-        <v>407</v>
+        <v>215</v>
       </c>
       <c r="E8" t="n">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="F8" t="n">
-        <v>446</v>
+        <v>211</v>
       </c>
       <c r="G8" t="n">
-        <v>391</v>
+        <v>248</v>
       </c>
       <c r="H8" t="n">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="I8" t="n">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="J8" t="n">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="K8" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="L8" t="n">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="M8" t="n">
-        <v>428</v>
+        <v>259</v>
       </c>
       <c r="N8" t="n">
-        <v>439</v>
+        <v>210</v>
       </c>
       <c r="O8" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="P8" t="n">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="Q8" t="n">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="R8" t="n">
-        <v>5370</v>
+        <v>3494</v>
       </c>
       <c r="S8" t="n">
-        <v>486</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9">
@@ -2048,58 +2048,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>458</v>
+        <v>159</v>
       </c>
       <c r="C9" t="n">
-        <v>419</v>
+        <v>160</v>
       </c>
       <c r="D9" t="n">
-        <v>395</v>
+        <v>169</v>
       </c>
       <c r="E9" t="n">
-        <v>408</v>
+        <v>156</v>
       </c>
       <c r="F9" t="n">
-        <v>428</v>
+        <v>169</v>
       </c>
       <c r="G9" t="n">
-        <v>399</v>
+        <v>180</v>
       </c>
       <c r="H9" t="n">
-        <v>391</v>
+        <v>187</v>
       </c>
       <c r="I9" t="n">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="J9" t="n">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="K9" t="n">
-        <v>296</v>
+        <v>56</v>
       </c>
       <c r="L9" t="n">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="M9" t="n">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="N9" t="n">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="O9" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="P9" t="n">
-        <v>357</v>
+        <v>58</v>
       </c>
       <c r="Q9" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R9" t="n">
-        <v>4748</v>
+        <v>2420</v>
       </c>
       <c r="S9" t="n">
-        <v>458</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -2109,58 +2109,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510</v>
+        <v>321</v>
       </c>
       <c r="C10" t="n">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="D10" t="n">
-        <v>415</v>
+        <v>311</v>
       </c>
       <c r="E10" t="n">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="F10" t="n">
-        <v>434</v>
+        <v>279</v>
       </c>
       <c r="G10" t="n">
-        <v>405</v>
+        <v>282</v>
       </c>
       <c r="H10" t="n">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="J10" t="n">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="K10" t="n">
-        <v>126</v>
+        <v>-22</v>
       </c>
       <c r="L10" t="n">
-        <v>165</v>
+        <v>-2</v>
       </c>
       <c r="M10" t="n">
-        <v>312</v>
+        <v>-19</v>
       </c>
       <c r="N10" t="n">
-        <v>373</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>365</v>
+        <v>86</v>
       </c>
       <c r="P10" t="n">
-        <v>169</v>
+        <v>-20</v>
       </c>
       <c r="Q10" t="n">
-        <v>40</v>
+        <v>-22</v>
       </c>
       <c r="R10" t="n">
-        <v>4742</v>
+        <v>2374</v>
       </c>
       <c r="S10" t="n">
-        <v>510</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11">
@@ -2170,58 +2170,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="D11" t="n">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="E11" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="G11" t="n">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="H11" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="J11" t="n">
-        <v>-146</v>
+        <v>362</v>
       </c>
       <c r="K11" t="n">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="L11" t="n">
-        <v>249</v>
+        <v>410</v>
       </c>
       <c r="M11" t="n">
-        <v>152</v>
+        <v>317</v>
       </c>
       <c r="N11" t="n">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="O11" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="P11" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="Q11" t="n">
-        <v>-146</v>
+        <v>30</v>
       </c>
       <c r="R11" t="n">
-        <v>1778</v>
+        <v>2444</v>
       </c>
       <c r="S11" t="n">
-        <v>249</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12">
@@ -2231,58 +2231,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="C12" t="n">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="D12" t="n">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="E12" t="n">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="F12" t="n">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="G12" t="n">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="H12" t="n">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="I12" t="n">
-        <v>44</v>
+        <v>-33</v>
       </c>
       <c r="J12" t="n">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="K12" t="n">
-        <v>242</v>
+        <v>-62</v>
       </c>
       <c r="L12" t="n">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>58</v>
+        <v>-35</v>
       </c>
       <c r="N12" t="n">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="O12" t="n">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="P12" t="n">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>44</v>
+        <v>-62</v>
       </c>
       <c r="R12" t="n">
-        <v>3164</v>
+        <v>1480</v>
       </c>
       <c r="S12" t="n">
-        <v>286</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
@@ -2292,58 +2292,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510</v>
+        <v>317</v>
       </c>
       <c r="C13" t="n">
-        <v>423</v>
+        <v>330</v>
       </c>
       <c r="D13" t="n">
-        <v>415</v>
+        <v>271</v>
       </c>
       <c r="E13" t="n">
-        <v>422</v>
+        <v>292</v>
       </c>
       <c r="F13" t="n">
-        <v>434</v>
+        <v>253</v>
       </c>
       <c r="G13" t="n">
-        <v>405</v>
+        <v>272</v>
       </c>
       <c r="H13" t="n">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="I13" t="n">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="J13" t="n">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="K13" t="n">
-        <v>126</v>
+        <v>-16</v>
       </c>
       <c r="L13" t="n">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
-        <v>312</v>
+        <v>-103</v>
       </c>
       <c r="N13" t="n">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="O13" t="n">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="P13" t="n">
-        <v>169</v>
+        <v>-14</v>
       </c>
       <c r="Q13" t="n">
-        <v>40</v>
+        <v>-103</v>
       </c>
       <c r="R13" t="n">
-        <v>4742</v>
+        <v>2516</v>
       </c>
       <c r="S13" t="n">
-        <v>510</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14">
@@ -2353,58 +2353,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="C14" t="n">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="D14" t="n">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="E14" t="n">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="F14" t="n">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="G14" t="n">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="H14" t="n">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="I14" t="n">
-        <v>44</v>
+        <v>-33</v>
       </c>
       <c r="J14" t="n">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="K14" t="n">
-        <v>242</v>
+        <v>-62</v>
       </c>
       <c r="L14" t="n">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>58</v>
+        <v>-35</v>
       </c>
       <c r="N14" t="n">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="O14" t="n">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="P14" t="n">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>44</v>
+        <v>-62</v>
       </c>
       <c r="R14" t="n">
-        <v>3164</v>
+        <v>1480</v>
       </c>
       <c r="S14" t="n">
-        <v>286</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15">
@@ -2414,58 +2414,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>510</v>
+        <v>213</v>
       </c>
       <c r="C15" t="n">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="D15" t="n">
-        <v>415</v>
+        <v>199</v>
       </c>
       <c r="E15" t="n">
-        <v>422</v>
+        <v>220</v>
       </c>
       <c r="F15" t="n">
-        <v>434</v>
+        <v>165</v>
       </c>
       <c r="G15" t="n">
-        <v>405</v>
+        <v>152</v>
       </c>
       <c r="H15" t="n">
-        <v>403</v>
+        <v>205</v>
       </c>
       <c r="I15" t="n">
-        <v>40</v>
+        <v>-33</v>
       </c>
       <c r="J15" t="n">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="K15" t="n">
-        <v>126</v>
+        <v>-62</v>
       </c>
       <c r="L15" t="n">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>312</v>
+        <v>-35</v>
       </c>
       <c r="N15" t="n">
-        <v>373</v>
+        <v>96</v>
       </c>
       <c r="O15" t="n">
-        <v>365</v>
+        <v>52</v>
       </c>
       <c r="P15" t="n">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>40</v>
+        <v>-62</v>
       </c>
       <c r="R15" t="n">
-        <v>4742</v>
+        <v>1480</v>
       </c>
       <c r="S15" t="n">
-        <v>510</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16">
@@ -2475,58 +2475,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510</v>
+        <v>213</v>
       </c>
       <c r="C16" t="n">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="D16" t="n">
-        <v>415</v>
+        <v>199</v>
       </c>
       <c r="E16" t="n">
-        <v>422</v>
+        <v>220</v>
       </c>
       <c r="F16" t="n">
-        <v>434</v>
+        <v>165</v>
       </c>
       <c r="G16" t="n">
-        <v>405</v>
+        <v>152</v>
       </c>
       <c r="H16" t="n">
-        <v>403</v>
+        <v>205</v>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>-33</v>
       </c>
       <c r="J16" t="n">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="K16" t="n">
-        <v>126</v>
+        <v>-62</v>
       </c>
       <c r="L16" t="n">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="M16" t="n">
-        <v>312</v>
+        <v>-35</v>
       </c>
       <c r="N16" t="n">
-        <v>373</v>
+        <v>96</v>
       </c>
       <c r="O16" t="n">
-        <v>365</v>
+        <v>52</v>
       </c>
       <c r="P16" t="n">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>40</v>
+        <v>-62</v>
       </c>
       <c r="R16" t="n">
-        <v>4742</v>
+        <v>1480</v>
       </c>
       <c r="S16" t="n">
-        <v>510</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17">
@@ -2536,58 +2536,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>510</v>
+        <v>213</v>
       </c>
       <c r="C17" t="n">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="D17" t="n">
-        <v>415</v>
+        <v>199</v>
       </c>
       <c r="E17" t="n">
-        <v>422</v>
+        <v>220</v>
       </c>
       <c r="F17" t="n">
-        <v>434</v>
+        <v>165</v>
       </c>
       <c r="G17" t="n">
-        <v>405</v>
+        <v>152</v>
       </c>
       <c r="H17" t="n">
-        <v>403</v>
+        <v>205</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>-33</v>
       </c>
       <c r="J17" t="n">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="K17" t="n">
-        <v>126</v>
+        <v>-62</v>
       </c>
       <c r="L17" t="n">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>312</v>
+        <v>-35</v>
       </c>
       <c r="N17" t="n">
-        <v>373</v>
+        <v>96</v>
       </c>
       <c r="O17" t="n">
-        <v>365</v>
+        <v>52</v>
       </c>
       <c r="P17" t="n">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>40</v>
+        <v>-62</v>
       </c>
       <c r="R17" t="n">
-        <v>4742</v>
+        <v>1480</v>
       </c>
       <c r="S17" t="n">
-        <v>510</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=7.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=7.xlsx
@@ -534,58 +534,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>448</v>
+        <v>579</v>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
+        <v>669</v>
       </c>
       <c r="D2" t="n">
-        <v>442</v>
+        <v>606</v>
       </c>
       <c r="E2" t="n">
-        <v>390</v>
+        <v>717</v>
       </c>
       <c r="F2" t="n">
-        <v>429</v>
+        <v>610</v>
       </c>
       <c r="G2" t="n">
-        <v>444</v>
+        <v>597</v>
       </c>
       <c r="H2" t="n">
-        <v>487</v>
+        <v>527</v>
       </c>
       <c r="I2" t="n">
-        <v>520</v>
+        <v>619</v>
       </c>
       <c r="J2" t="n">
-        <v>429</v>
+        <v>584</v>
       </c>
       <c r="K2" t="n">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="L2" t="n">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="M2" t="n">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="N2" t="n">
-        <v>367</v>
+        <v>505</v>
       </c>
       <c r="O2" t="n">
-        <v>335</v>
+        <v>491</v>
       </c>
       <c r="P2" t="n">
-        <v>266</v>
+        <v>489</v>
       </c>
       <c r="Q2" t="n">
-        <v>266</v>
+        <v>419</v>
       </c>
       <c r="R2" t="n">
-        <v>6337</v>
+        <v>8433</v>
       </c>
       <c r="S2" t="n">
-        <v>532</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3">
@@ -595,58 +595,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475</v>
+        <v>569</v>
       </c>
       <c r="C3" t="n">
-        <v>475</v>
+        <v>666</v>
       </c>
       <c r="D3" t="n">
-        <v>466</v>
+        <v>571</v>
       </c>
       <c r="E3" t="n">
-        <v>412</v>
+        <v>707</v>
       </c>
       <c r="F3" t="n">
-        <v>453</v>
+        <v>589</v>
       </c>
       <c r="G3" t="n">
-        <v>473</v>
+        <v>598</v>
       </c>
       <c r="H3" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
-        <v>568</v>
+        <v>772</v>
       </c>
       <c r="J3" t="n">
-        <v>346</v>
+        <v>620</v>
       </c>
       <c r="K3" t="n">
-        <v>366</v>
+        <v>528</v>
       </c>
       <c r="L3" t="n">
-        <v>467</v>
+        <v>553</v>
       </c>
       <c r="M3" t="n">
-        <v>404</v>
+        <v>490</v>
       </c>
       <c r="N3" t="n">
-        <v>295</v>
+        <v>605</v>
       </c>
       <c r="O3" t="n">
-        <v>299</v>
+        <v>638</v>
       </c>
       <c r="P3" t="n">
-        <v>299</v>
+        <v>599</v>
       </c>
       <c r="Q3" t="n">
-        <v>295</v>
+        <v>490</v>
       </c>
       <c r="R3" t="n">
-        <v>6303</v>
+        <v>9015</v>
       </c>
       <c r="S3" t="n">
-        <v>568</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4">
@@ -656,58 +656,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="C4" t="n">
-        <v>493</v>
+        <v>669</v>
       </c>
       <c r="D4" t="n">
-        <v>474</v>
+        <v>606</v>
       </c>
       <c r="E4" t="n">
-        <v>423</v>
+        <v>717</v>
       </c>
       <c r="F4" t="n">
-        <v>449</v>
+        <v>610</v>
       </c>
       <c r="G4" t="n">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="H4" t="n">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I4" t="n">
-        <v>488</v>
+        <v>619</v>
       </c>
       <c r="J4" t="n">
-        <v>392</v>
+        <v>584</v>
       </c>
       <c r="K4" t="n">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L4" t="n">
-        <v>487</v>
+        <v>589</v>
       </c>
       <c r="M4" t="n">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="N4" t="n">
-        <v>345</v>
+        <v>505</v>
       </c>
       <c r="O4" t="n">
-        <v>332</v>
+        <v>491</v>
       </c>
       <c r="P4" t="n">
-        <v>321</v>
+        <v>489</v>
       </c>
       <c r="Q4" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="R4" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
       <c r="S4" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5">
@@ -717,58 +717,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="C5" t="n">
-        <v>511</v>
+        <v>645</v>
       </c>
       <c r="D5" t="n">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="E5" t="n">
-        <v>391</v>
+        <v>695</v>
       </c>
       <c r="F5" t="n">
-        <v>472</v>
+        <v>571</v>
       </c>
       <c r="G5" t="n">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="H5" t="n">
+        <v>455</v>
+      </c>
+      <c r="I5" t="n">
+        <v>825</v>
+      </c>
+      <c r="J5" t="n">
+        <v>653</v>
+      </c>
+      <c r="K5" t="n">
+        <v>561</v>
+      </c>
+      <c r="L5" t="n">
+        <v>623</v>
+      </c>
+      <c r="M5" t="n">
         <v>554</v>
       </c>
-      <c r="I5" t="n">
-        <v>624</v>
-      </c>
-      <c r="J5" t="n">
-        <v>453</v>
-      </c>
-      <c r="K5" t="n">
-        <v>518</v>
-      </c>
-      <c r="L5" t="n">
-        <v>624</v>
-      </c>
-      <c r="M5" t="n">
-        <v>552</v>
-      </c>
       <c r="N5" t="n">
-        <v>402</v>
+        <v>657</v>
       </c>
       <c r="O5" t="n">
-        <v>500</v>
+        <v>672</v>
       </c>
       <c r="P5" t="n">
-        <v>376</v>
+        <v>587</v>
       </c>
       <c r="Q5" t="n">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="R5" t="n">
-        <v>7467</v>
+        <v>9168</v>
       </c>
       <c r="S5" t="n">
-        <v>624</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6">
@@ -778,58 +778,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457</v>
+        <v>576</v>
       </c>
       <c r="C6" t="n">
-        <v>468</v>
+        <v>684</v>
       </c>
       <c r="D6" t="n">
-        <v>459</v>
+        <v>585</v>
       </c>
       <c r="E6" t="n">
-        <v>391</v>
+        <v>736</v>
       </c>
       <c r="F6" t="n">
-        <v>451</v>
+        <v>619</v>
       </c>
       <c r="G6" t="n">
-        <v>483</v>
+        <v>600</v>
       </c>
       <c r="H6" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="I6" t="n">
-        <v>568</v>
+        <v>736</v>
       </c>
       <c r="J6" t="n">
-        <v>451</v>
+        <v>607</v>
       </c>
       <c r="K6" t="n">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="L6" t="n">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="M6" t="n">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="N6" t="n">
-        <v>394</v>
+        <v>592</v>
       </c>
       <c r="O6" t="n">
-        <v>436</v>
+        <v>591</v>
       </c>
       <c r="P6" t="n">
-        <v>348</v>
+        <v>549</v>
       </c>
       <c r="Q6" t="n">
-        <v>348</v>
+        <v>499</v>
       </c>
       <c r="R6" t="n">
-        <v>6930</v>
+        <v>8957</v>
       </c>
       <c r="S6" t="n">
-        <v>594</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7">
@@ -839,58 +839,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="C7" t="n">
-        <v>493</v>
+        <v>669</v>
       </c>
       <c r="D7" t="n">
-        <v>474</v>
+        <v>606</v>
       </c>
       <c r="E7" t="n">
-        <v>423</v>
+        <v>717</v>
       </c>
       <c r="F7" t="n">
-        <v>449</v>
+        <v>610</v>
       </c>
       <c r="G7" t="n">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="H7" t="n">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I7" t="n">
-        <v>488</v>
+        <v>619</v>
       </c>
       <c r="J7" t="n">
-        <v>392</v>
+        <v>584</v>
       </c>
       <c r="K7" t="n">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L7" t="n">
-        <v>487</v>
+        <v>589</v>
       </c>
       <c r="M7" t="n">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="N7" t="n">
-        <v>345</v>
+        <v>505</v>
       </c>
       <c r="O7" t="n">
-        <v>332</v>
+        <v>491</v>
       </c>
       <c r="P7" t="n">
-        <v>321</v>
+        <v>489</v>
       </c>
       <c r="Q7" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="R7" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
       <c r="S7" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8">
@@ -900,58 +900,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="C8" t="n">
-        <v>511</v>
+        <v>645</v>
       </c>
       <c r="D8" t="n">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="E8" t="n">
-        <v>391</v>
+        <v>695</v>
       </c>
       <c r="F8" t="n">
-        <v>472</v>
+        <v>571</v>
       </c>
       <c r="G8" t="n">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="H8" t="n">
+        <v>455</v>
+      </c>
+      <c r="I8" t="n">
+        <v>825</v>
+      </c>
+      <c r="J8" t="n">
+        <v>653</v>
+      </c>
+      <c r="K8" t="n">
+        <v>561</v>
+      </c>
+      <c r="L8" t="n">
+        <v>623</v>
+      </c>
+      <c r="M8" t="n">
         <v>554</v>
       </c>
-      <c r="I8" t="n">
-        <v>624</v>
-      </c>
-      <c r="J8" t="n">
-        <v>453</v>
-      </c>
-      <c r="K8" t="n">
-        <v>518</v>
-      </c>
-      <c r="L8" t="n">
-        <v>624</v>
-      </c>
-      <c r="M8" t="n">
-        <v>552</v>
-      </c>
       <c r="N8" t="n">
-        <v>402</v>
+        <v>657</v>
       </c>
       <c r="O8" t="n">
-        <v>500</v>
+        <v>672</v>
       </c>
       <c r="P8" t="n">
-        <v>376</v>
+        <v>587</v>
       </c>
       <c r="Q8" t="n">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="R8" t="n">
-        <v>7467</v>
+        <v>9168</v>
       </c>
       <c r="S8" t="n">
-        <v>624</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9">
@@ -961,58 +961,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>457</v>
+        <v>576</v>
       </c>
       <c r="C9" t="n">
-        <v>468</v>
+        <v>684</v>
       </c>
       <c r="D9" t="n">
-        <v>459</v>
+        <v>585</v>
       </c>
       <c r="E9" t="n">
-        <v>391</v>
+        <v>736</v>
       </c>
       <c r="F9" t="n">
-        <v>451</v>
+        <v>619</v>
       </c>
       <c r="G9" t="n">
-        <v>483</v>
+        <v>600</v>
       </c>
       <c r="H9" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="I9" t="n">
-        <v>568</v>
+        <v>736</v>
       </c>
       <c r="J9" t="n">
-        <v>451</v>
+        <v>607</v>
       </c>
       <c r="K9" t="n">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="L9" t="n">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="M9" t="n">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="N9" t="n">
-        <v>394</v>
+        <v>592</v>
       </c>
       <c r="O9" t="n">
-        <v>436</v>
+        <v>591</v>
       </c>
       <c r="P9" t="n">
-        <v>348</v>
+        <v>549</v>
       </c>
       <c r="Q9" t="n">
-        <v>348</v>
+        <v>499</v>
       </c>
       <c r="R9" t="n">
-        <v>6930</v>
+        <v>8957</v>
       </c>
       <c r="S9" t="n">
-        <v>594</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10">
@@ -1022,58 +1022,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538</v>
+        <v>579</v>
       </c>
       <c r="C10" t="n">
-        <v>556</v>
+        <v>669</v>
       </c>
       <c r="D10" t="n">
-        <v>530</v>
+        <v>606</v>
       </c>
       <c r="E10" t="n">
-        <v>467</v>
+        <v>717</v>
       </c>
       <c r="F10" t="n">
-        <v>506</v>
+        <v>610</v>
       </c>
       <c r="G10" t="n">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="H10" t="n">
-        <v>583</v>
+        <v>527</v>
       </c>
       <c r="I10" t="n">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="J10" t="n">
-        <v>356</v>
+        <v>584</v>
       </c>
       <c r="K10" t="n">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="L10" t="n">
-        <v>482</v>
+        <v>589</v>
       </c>
       <c r="M10" t="n">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N10" t="n">
-        <v>302</v>
+        <v>505</v>
       </c>
       <c r="O10" t="n">
-        <v>349</v>
+        <v>491</v>
       </c>
       <c r="P10" t="n">
-        <v>309</v>
+        <v>489</v>
       </c>
       <c r="Q10" t="n">
-        <v>302</v>
+        <v>419</v>
       </c>
       <c r="R10" t="n">
-        <v>6907</v>
+        <v>8433</v>
       </c>
       <c r="S10" t="n">
-        <v>583</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11">
@@ -1083,58 +1083,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>407</v>
+        <v>513</v>
       </c>
       <c r="C11" t="n">
-        <v>422</v>
+        <v>591</v>
       </c>
       <c r="D11" t="n">
-        <v>398</v>
+        <v>531</v>
       </c>
       <c r="E11" t="n">
-        <v>328</v>
+        <v>633</v>
       </c>
       <c r="F11" t="n">
-        <v>385</v>
+        <v>541</v>
       </c>
       <c r="G11" t="n">
-        <v>428</v>
+        <v>545</v>
       </c>
       <c r="H11" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="I11" t="n">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="J11" t="n">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="K11" t="n">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="L11" t="n">
-        <v>688</v>
+        <v>576</v>
       </c>
       <c r="M11" t="n">
-        <v>581</v>
+        <v>478</v>
       </c>
       <c r="N11" t="n">
-        <v>437</v>
+        <v>525</v>
       </c>
       <c r="O11" t="n">
-        <v>403</v>
+        <v>501</v>
       </c>
       <c r="P11" t="n">
-        <v>366</v>
+        <v>453</v>
       </c>
       <c r="Q11" t="n">
-        <v>328</v>
+        <v>441</v>
       </c>
       <c r="R11" t="n">
-        <v>6942</v>
+        <v>8015</v>
       </c>
       <c r="S11" t="n">
-        <v>688</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12">
@@ -1144,58 +1144,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="C12" t="n">
-        <v>493</v>
+        <v>669</v>
       </c>
       <c r="D12" t="n">
-        <v>474</v>
+        <v>606</v>
       </c>
       <c r="E12" t="n">
-        <v>423</v>
+        <v>717</v>
       </c>
       <c r="F12" t="n">
-        <v>449</v>
+        <v>610</v>
       </c>
       <c r="G12" t="n">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="H12" t="n">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I12" t="n">
-        <v>488</v>
+        <v>619</v>
       </c>
       <c r="J12" t="n">
-        <v>392</v>
+        <v>584</v>
       </c>
       <c r="K12" t="n">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L12" t="n">
-        <v>487</v>
+        <v>589</v>
       </c>
       <c r="M12" t="n">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="N12" t="n">
-        <v>345</v>
+        <v>505</v>
       </c>
       <c r="O12" t="n">
-        <v>332</v>
+        <v>491</v>
       </c>
       <c r="P12" t="n">
-        <v>321</v>
+        <v>489</v>
       </c>
       <c r="Q12" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="R12" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
       <c r="S12" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13">
@@ -1205,58 +1205,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="C13" t="n">
-        <v>553</v>
+        <v>669</v>
       </c>
       <c r="D13" t="n">
-        <v>510</v>
+        <v>606</v>
       </c>
       <c r="E13" t="n">
-        <v>459</v>
+        <v>717</v>
       </c>
       <c r="F13" t="n">
-        <v>493</v>
+        <v>610</v>
       </c>
       <c r="G13" t="n">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="H13" t="n">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="I13" t="n">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="J13" t="n">
-        <v>403</v>
+        <v>584</v>
       </c>
       <c r="K13" t="n">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="L13" t="n">
-        <v>547</v>
+        <v>589</v>
       </c>
       <c r="M13" t="n">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="N13" t="n">
-        <v>336</v>
+        <v>505</v>
       </c>
       <c r="O13" t="n">
-        <v>360</v>
+        <v>491</v>
       </c>
       <c r="P13" t="n">
-        <v>312</v>
+        <v>489</v>
       </c>
       <c r="Q13" t="n">
-        <v>312</v>
+        <v>419</v>
       </c>
       <c r="R13" t="n">
-        <v>6978</v>
+        <v>8433</v>
       </c>
       <c r="S13" t="n">
-        <v>590</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14">
@@ -1266,58 +1266,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="C14" t="n">
-        <v>493</v>
+        <v>630</v>
       </c>
       <c r="D14" t="n">
-        <v>474</v>
+        <v>549</v>
       </c>
       <c r="E14" t="n">
-        <v>423</v>
+        <v>663</v>
       </c>
       <c r="F14" t="n">
-        <v>449</v>
+        <v>544</v>
       </c>
       <c r="G14" t="n">
-        <v>469</v>
+        <v>561</v>
       </c>
       <c r="H14" t="n">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="I14" t="n">
-        <v>488</v>
+        <v>616</v>
       </c>
       <c r="J14" t="n">
-        <v>392</v>
+        <v>622</v>
       </c>
       <c r="K14" t="n">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="L14" t="n">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="M14" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="N14" t="n">
-        <v>345</v>
+        <v>501</v>
       </c>
       <c r="O14" t="n">
-        <v>332</v>
+        <v>497</v>
       </c>
       <c r="P14" t="n">
-        <v>321</v>
+        <v>548</v>
       </c>
       <c r="Q14" t="n">
-        <v>321</v>
+        <v>409</v>
       </c>
       <c r="R14" t="n">
-        <v>6460</v>
+        <v>8074</v>
       </c>
       <c r="S14" t="n">
-        <v>519</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15">
@@ -1327,58 +1327,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="C15" t="n">
-        <v>493</v>
+        <v>669</v>
       </c>
       <c r="D15" t="n">
-        <v>474</v>
+        <v>606</v>
       </c>
       <c r="E15" t="n">
-        <v>423</v>
+        <v>717</v>
       </c>
       <c r="F15" t="n">
-        <v>449</v>
+        <v>610</v>
       </c>
       <c r="G15" t="n">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="H15" t="n">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I15" t="n">
-        <v>488</v>
+        <v>619</v>
       </c>
       <c r="J15" t="n">
-        <v>392</v>
+        <v>584</v>
       </c>
       <c r="K15" t="n">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L15" t="n">
-        <v>487</v>
+        <v>589</v>
       </c>
       <c r="M15" t="n">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="N15" t="n">
-        <v>345</v>
+        <v>505</v>
       </c>
       <c r="O15" t="n">
-        <v>332</v>
+        <v>491</v>
       </c>
       <c r="P15" t="n">
-        <v>321</v>
+        <v>489</v>
       </c>
       <c r="Q15" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="R15" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
       <c r="S15" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16">
@@ -1388,58 +1388,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="C16" t="n">
-        <v>493</v>
+        <v>669</v>
       </c>
       <c r="D16" t="n">
-        <v>474</v>
+        <v>606</v>
       </c>
       <c r="E16" t="n">
-        <v>423</v>
+        <v>717</v>
       </c>
       <c r="F16" t="n">
-        <v>449</v>
+        <v>610</v>
       </c>
       <c r="G16" t="n">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="H16" t="n">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I16" t="n">
-        <v>488</v>
+        <v>619</v>
       </c>
       <c r="J16" t="n">
-        <v>392</v>
+        <v>584</v>
       </c>
       <c r="K16" t="n">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L16" t="n">
-        <v>487</v>
+        <v>589</v>
       </c>
       <c r="M16" t="n">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="N16" t="n">
-        <v>345</v>
+        <v>505</v>
       </c>
       <c r="O16" t="n">
-        <v>332</v>
+        <v>491</v>
       </c>
       <c r="P16" t="n">
-        <v>321</v>
+        <v>489</v>
       </c>
       <c r="Q16" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="R16" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
       <c r="S16" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17">
@@ -1449,58 +1449,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="C17" t="n">
-        <v>493</v>
+        <v>669</v>
       </c>
       <c r="D17" t="n">
-        <v>474</v>
+        <v>606</v>
       </c>
       <c r="E17" t="n">
-        <v>423</v>
+        <v>717</v>
       </c>
       <c r="F17" t="n">
-        <v>449</v>
+        <v>610</v>
       </c>
       <c r="G17" t="n">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="H17" t="n">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I17" t="n">
-        <v>488</v>
+        <v>619</v>
       </c>
       <c r="J17" t="n">
-        <v>392</v>
+        <v>584</v>
       </c>
       <c r="K17" t="n">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L17" t="n">
-        <v>487</v>
+        <v>589</v>
       </c>
       <c r="M17" t="n">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="N17" t="n">
-        <v>345</v>
+        <v>505</v>
       </c>
       <c r="O17" t="n">
-        <v>332</v>
+        <v>491</v>
       </c>
       <c r="P17" t="n">
-        <v>321</v>
+        <v>489</v>
       </c>
       <c r="Q17" t="n">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="R17" t="n">
-        <v>6460</v>
+        <v>8433</v>
       </c>
       <c r="S17" t="n">
-        <v>519</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -1621,58 +1621,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141</v>
+        <v>458</v>
       </c>
       <c r="C2" t="n">
-        <v>124</v>
+        <v>522</v>
       </c>
       <c r="D2" t="n">
-        <v>135</v>
+        <v>511</v>
       </c>
       <c r="E2" t="n">
-        <v>154</v>
+        <v>561</v>
       </c>
       <c r="F2" t="n">
-        <v>125</v>
+        <v>503</v>
       </c>
       <c r="G2" t="n">
-        <v>102</v>
+        <v>459</v>
       </c>
       <c r="H2" t="n">
-        <v>141</v>
+        <v>455</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>-154</v>
+        <v>267</v>
       </c>
       <c r="L2" t="n">
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N2" t="n">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="O2" t="n">
-        <v>58</v>
+        <v>262</v>
       </c>
       <c r="P2" t="n">
-        <v>-106</v>
+        <v>259</v>
       </c>
       <c r="Q2" t="n">
-        <v>-154</v>
+        <v>91</v>
       </c>
       <c r="R2" t="n">
-        <v>1234</v>
+        <v>5632</v>
       </c>
       <c r="S2" t="n">
-        <v>160</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3">
@@ -1682,58 +1682,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195</v>
+        <v>438</v>
       </c>
       <c r="C3" t="n">
-        <v>174</v>
+        <v>516</v>
       </c>
       <c r="D3" t="n">
-        <v>183</v>
+        <v>441</v>
       </c>
       <c r="E3" t="n">
-        <v>198</v>
+        <v>541</v>
       </c>
       <c r="F3" t="n">
-        <v>173</v>
+        <v>461</v>
       </c>
       <c r="G3" t="n">
-        <v>160</v>
+        <v>461</v>
       </c>
       <c r="H3" t="n">
-        <v>177</v>
+        <v>421</v>
       </c>
       <c r="I3" t="n">
-        <v>127</v>
+        <v>620</v>
       </c>
       <c r="J3" t="n">
-        <v>-6</v>
+        <v>382</v>
       </c>
       <c r="K3" t="n">
-        <v>-88</v>
+        <v>459</v>
       </c>
       <c r="L3" t="n">
-        <v>-32</v>
+        <v>329</v>
       </c>
       <c r="M3" t="n">
-        <v>-37</v>
+        <v>233</v>
       </c>
       <c r="N3" t="n">
-        <v>-4</v>
+        <v>459</v>
       </c>
       <c r="O3" t="n">
-        <v>-14</v>
+        <v>556</v>
       </c>
       <c r="P3" t="n">
-        <v>-40</v>
+        <v>479</v>
       </c>
       <c r="Q3" t="n">
-        <v>-88</v>
+        <v>233</v>
       </c>
       <c r="R3" t="n">
-        <v>1166</v>
+        <v>6796</v>
       </c>
       <c r="S3" t="n">
-        <v>198</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4">
@@ -1743,58 +1743,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213</v>
+        <v>458</v>
       </c>
       <c r="C4" t="n">
-        <v>210</v>
+        <v>522</v>
       </c>
       <c r="D4" t="n">
-        <v>199</v>
+        <v>511</v>
       </c>
       <c r="E4" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
       <c r="F4" t="n">
-        <v>165</v>
+        <v>503</v>
       </c>
       <c r="G4" t="n">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="H4" t="n">
-        <v>205</v>
+        <v>455</v>
       </c>
       <c r="I4" t="n">
-        <v>-33</v>
+        <v>314</v>
       </c>
       <c r="J4" t="n">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>-62</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="M4" t="n">
-        <v>-35</v>
+        <v>91</v>
       </c>
       <c r="N4" t="n">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="O4" t="n">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="Q4" t="n">
-        <v>-62</v>
+        <v>91</v>
       </c>
       <c r="R4" t="n">
-        <v>1480</v>
+        <v>5632</v>
       </c>
       <c r="S4" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5">
@@ -1804,58 +1804,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="C5" t="n">
-        <v>246</v>
+        <v>474</v>
       </c>
       <c r="D5" t="n">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="E5" t="n">
-        <v>156</v>
+        <v>517</v>
       </c>
       <c r="F5" t="n">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="G5" t="n">
-        <v>248</v>
+        <v>415</v>
       </c>
       <c r="H5" t="n">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="I5" t="n">
-        <v>239</v>
+        <v>726</v>
       </c>
       <c r="J5" t="n">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="K5" t="n">
-        <v>216</v>
+        <v>525</v>
       </c>
       <c r="L5" t="n">
-        <v>282</v>
+        <v>469</v>
       </c>
       <c r="M5" t="n">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="N5" t="n">
-        <v>210</v>
+        <v>563</v>
       </c>
       <c r="O5" t="n">
-        <v>388</v>
+        <v>624</v>
       </c>
       <c r="P5" t="n">
-        <v>114</v>
+        <v>455</v>
       </c>
       <c r="Q5" t="n">
-        <v>114</v>
+        <v>311</v>
       </c>
       <c r="R5" t="n">
-        <v>3494</v>
+        <v>7102</v>
       </c>
       <c r="S5" t="n">
-        <v>388</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6">
@@ -1865,58 +1865,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159</v>
+        <v>452</v>
       </c>
       <c r="C6" t="n">
-        <v>160</v>
+        <v>552</v>
       </c>
       <c r="D6" t="n">
-        <v>169</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>156</v>
+        <v>599</v>
       </c>
       <c r="F6" t="n">
-        <v>169</v>
+        <v>521</v>
       </c>
       <c r="G6" t="n">
-        <v>180</v>
+        <v>465</v>
       </c>
       <c r="H6" t="n">
-        <v>187</v>
+        <v>437</v>
       </c>
       <c r="I6" t="n">
-        <v>127</v>
+        <v>548</v>
       </c>
       <c r="J6" t="n">
-        <v>204</v>
+        <v>356</v>
       </c>
       <c r="K6" t="n">
-        <v>56</v>
+        <v>401</v>
       </c>
       <c r="L6" t="n">
-        <v>222</v>
+        <v>351</v>
       </c>
       <c r="M6" t="n">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="N6" t="n">
-        <v>194</v>
+        <v>433</v>
       </c>
       <c r="O6" t="n">
-        <v>260</v>
+        <v>462</v>
       </c>
       <c r="P6" t="n">
-        <v>58</v>
+        <v>379</v>
       </c>
       <c r="Q6" t="n">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="R6" t="n">
-        <v>2420</v>
+        <v>6680</v>
       </c>
       <c r="S6" t="n">
-        <v>260</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7">
@@ -1926,58 +1926,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213</v>
+        <v>458</v>
       </c>
       <c r="C7" t="n">
-        <v>210</v>
+        <v>522</v>
       </c>
       <c r="D7" t="n">
-        <v>199</v>
+        <v>511</v>
       </c>
       <c r="E7" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
       <c r="F7" t="n">
-        <v>165</v>
+        <v>503</v>
       </c>
       <c r="G7" t="n">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="H7" t="n">
-        <v>205</v>
+        <v>455</v>
       </c>
       <c r="I7" t="n">
-        <v>-33</v>
+        <v>314</v>
       </c>
       <c r="J7" t="n">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>-62</v>
+        <v>267</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="M7" t="n">
-        <v>-35</v>
+        <v>91</v>
       </c>
       <c r="N7" t="n">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="O7" t="n">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="Q7" t="n">
-        <v>-62</v>
+        <v>91</v>
       </c>
       <c r="R7" t="n">
-        <v>1480</v>
+        <v>5632</v>
       </c>
       <c r="S7" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8">
@@ -1987,58 +1987,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="C8" t="n">
-        <v>246</v>
+        <v>474</v>
       </c>
       <c r="D8" t="n">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="E8" t="n">
-        <v>156</v>
+        <v>517</v>
       </c>
       <c r="F8" t="n">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="G8" t="n">
-        <v>248</v>
+        <v>415</v>
       </c>
       <c r="H8" t="n">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="I8" t="n">
-        <v>239</v>
+        <v>726</v>
       </c>
       <c r="J8" t="n">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="K8" t="n">
-        <v>216</v>
+        <v>525</v>
       </c>
       <c r="L8" t="n">
-        <v>282</v>
+        <v>469</v>
       </c>
       <c r="M8" t="n">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="N8" t="n">
-        <v>210</v>
+        <v>563</v>
       </c>
       <c r="O8" t="n">
-        <v>388</v>
+        <v>624</v>
       </c>
       <c r="P8" t="n">
-        <v>114</v>
+        <v>455</v>
       </c>
       <c r="Q8" t="n">
-        <v>114</v>
+        <v>311</v>
       </c>
       <c r="R8" t="n">
-        <v>3494</v>
+        <v>7102</v>
       </c>
       <c r="S8" t="n">
-        <v>388</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9">
@@ -2048,58 +2048,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159</v>
+        <v>452</v>
       </c>
       <c r="C9" t="n">
-        <v>160</v>
+        <v>552</v>
       </c>
       <c r="D9" t="n">
-        <v>169</v>
+        <v>469</v>
       </c>
       <c r="E9" t="n">
-        <v>156</v>
+        <v>599</v>
       </c>
       <c r="F9" t="n">
-        <v>169</v>
+        <v>521</v>
       </c>
       <c r="G9" t="n">
-        <v>180</v>
+        <v>465</v>
       </c>
       <c r="H9" t="n">
-        <v>187</v>
+        <v>437</v>
       </c>
       <c r="I9" t="n">
-        <v>127</v>
+        <v>548</v>
       </c>
       <c r="J9" t="n">
-        <v>204</v>
+        <v>356</v>
       </c>
       <c r="K9" t="n">
-        <v>56</v>
+        <v>401</v>
       </c>
       <c r="L9" t="n">
-        <v>222</v>
+        <v>351</v>
       </c>
       <c r="M9" t="n">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="N9" t="n">
-        <v>194</v>
+        <v>433</v>
       </c>
       <c r="O9" t="n">
-        <v>260</v>
+        <v>462</v>
       </c>
       <c r="P9" t="n">
-        <v>58</v>
+        <v>379</v>
       </c>
       <c r="Q9" t="n">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="R9" t="n">
-        <v>2420</v>
+        <v>6680</v>
       </c>
       <c r="S9" t="n">
-        <v>260</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10">
@@ -2109,58 +2109,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>321</v>
+        <v>458</v>
       </c>
       <c r="C10" t="n">
-        <v>336</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>311</v>
+        <v>511</v>
       </c>
       <c r="E10" t="n">
-        <v>308</v>
+        <v>561</v>
       </c>
       <c r="F10" t="n">
-        <v>279</v>
+        <v>503</v>
       </c>
       <c r="G10" t="n">
-        <v>282</v>
+        <v>459</v>
       </c>
       <c r="H10" t="n">
-        <v>333</v>
+        <v>455</v>
       </c>
       <c r="I10" t="n">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="K10" t="n">
-        <v>-22</v>
+        <v>267</v>
       </c>
       <c r="L10" t="n">
-        <v>-2</v>
+        <v>401</v>
       </c>
       <c r="M10" t="n">
-        <v>-19</v>
+        <v>91</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="O10" t="n">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="P10" t="n">
-        <v>-20</v>
+        <v>259</v>
       </c>
       <c r="Q10" t="n">
-        <v>-22</v>
+        <v>91</v>
       </c>
       <c r="R10" t="n">
-        <v>2374</v>
+        <v>5632</v>
       </c>
       <c r="S10" t="n">
-        <v>336</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11">
@@ -2170,58 +2170,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59</v>
+        <v>326</v>
       </c>
       <c r="C11" t="n">
-        <v>68</v>
+        <v>366</v>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>361</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>393</v>
       </c>
       <c r="F11" t="n">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="G11" t="n">
-        <v>70</v>
+        <v>355</v>
       </c>
       <c r="H11" t="n">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="I11" t="n">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="J11" t="n">
-        <v>362</v>
+        <v>278</v>
       </c>
       <c r="K11" t="n">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="L11" t="n">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="M11" t="n">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="N11" t="n">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="O11" t="n">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="P11" t="n">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="R11" t="n">
-        <v>2444</v>
+        <v>4796</v>
       </c>
       <c r="S11" t="n">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12">
@@ -2231,58 +2231,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>213</v>
+        <v>458</v>
       </c>
       <c r="C12" t="n">
-        <v>210</v>
+        <v>522</v>
       </c>
       <c r="D12" t="n">
-        <v>199</v>
+        <v>511</v>
       </c>
       <c r="E12" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
       <c r="F12" t="n">
-        <v>165</v>
+        <v>503</v>
       </c>
       <c r="G12" t="n">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="H12" t="n">
-        <v>205</v>
+        <v>455</v>
       </c>
       <c r="I12" t="n">
-        <v>-33</v>
+        <v>314</v>
       </c>
       <c r="J12" t="n">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="K12" t="n">
-        <v>-62</v>
+        <v>267</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="M12" t="n">
-        <v>-35</v>
+        <v>91</v>
       </c>
       <c r="N12" t="n">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="O12" t="n">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="Q12" t="n">
-        <v>-62</v>
+        <v>91</v>
       </c>
       <c r="R12" t="n">
-        <v>1480</v>
+        <v>5632</v>
       </c>
       <c r="S12" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13">
@@ -2292,58 +2292,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="C13" t="n">
-        <v>330</v>
+        <v>522</v>
       </c>
       <c r="D13" t="n">
-        <v>271</v>
+        <v>511</v>
       </c>
       <c r="E13" t="n">
-        <v>292</v>
+        <v>561</v>
       </c>
       <c r="F13" t="n">
-        <v>253</v>
+        <v>503</v>
       </c>
       <c r="G13" t="n">
-        <v>272</v>
+        <v>459</v>
       </c>
       <c r="H13" t="n">
-        <v>321</v>
+        <v>455</v>
       </c>
       <c r="I13" t="n">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="J13" t="n">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="K13" t="n">
-        <v>-16</v>
+        <v>267</v>
       </c>
       <c r="L13" t="n">
-        <v>128</v>
+        <v>401</v>
       </c>
       <c r="M13" t="n">
-        <v>-103</v>
+        <v>91</v>
       </c>
       <c r="N13" t="n">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="O13" t="n">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="P13" t="n">
-        <v>-14</v>
+        <v>259</v>
       </c>
       <c r="Q13" t="n">
-        <v>-103</v>
+        <v>91</v>
       </c>
       <c r="R13" t="n">
-        <v>2516</v>
+        <v>5632</v>
       </c>
       <c r="S13" t="n">
-        <v>330</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14">
@@ -2353,58 +2353,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>213</v>
+        <v>410</v>
       </c>
       <c r="C14" t="n">
-        <v>210</v>
+        <v>444</v>
       </c>
       <c r="D14" t="n">
-        <v>199</v>
+        <v>397</v>
       </c>
       <c r="E14" t="n">
-        <v>220</v>
+        <v>453</v>
       </c>
       <c r="F14" t="n">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="G14" t="n">
-        <v>152</v>
+        <v>387</v>
       </c>
       <c r="H14" t="n">
-        <v>205</v>
+        <v>391</v>
       </c>
       <c r="I14" t="n">
-        <v>-33</v>
+        <v>308</v>
       </c>
       <c r="J14" t="n">
-        <v>86</v>
+        <v>386</v>
       </c>
       <c r="K14" t="n">
-        <v>-62</v>
+        <v>235</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
-        <v>-35</v>
+        <v>71</v>
       </c>
       <c r="N14" t="n">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="O14" t="n">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="Q14" t="n">
-        <v>-62</v>
+        <v>71</v>
       </c>
       <c r="R14" t="n">
-        <v>1480</v>
+        <v>4914</v>
       </c>
       <c r="S14" t="n">
-        <v>220</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15">
@@ -2414,58 +2414,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>213</v>
+        <v>458</v>
       </c>
       <c r="C15" t="n">
-        <v>210</v>
+        <v>522</v>
       </c>
       <c r="D15" t="n">
-        <v>199</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
       <c r="F15" t="n">
-        <v>165</v>
+        <v>503</v>
       </c>
       <c r="G15" t="n">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="H15" t="n">
-        <v>205</v>
+        <v>455</v>
       </c>
       <c r="I15" t="n">
-        <v>-33</v>
+        <v>314</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="K15" t="n">
-        <v>-62</v>
+        <v>267</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="M15" t="n">
-        <v>-35</v>
+        <v>91</v>
       </c>
       <c r="N15" t="n">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="O15" t="n">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="Q15" t="n">
-        <v>-62</v>
+        <v>91</v>
       </c>
       <c r="R15" t="n">
-        <v>1480</v>
+        <v>5632</v>
       </c>
       <c r="S15" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16">
@@ -2475,58 +2475,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213</v>
+        <v>458</v>
       </c>
       <c r="C16" t="n">
-        <v>210</v>
+        <v>522</v>
       </c>
       <c r="D16" t="n">
-        <v>199</v>
+        <v>511</v>
       </c>
       <c r="E16" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
       <c r="F16" t="n">
-        <v>165</v>
+        <v>503</v>
       </c>
       <c r="G16" t="n">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="H16" t="n">
-        <v>205</v>
+        <v>455</v>
       </c>
       <c r="I16" t="n">
-        <v>-33</v>
+        <v>314</v>
       </c>
       <c r="J16" t="n">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="K16" t="n">
-        <v>-62</v>
+        <v>267</v>
       </c>
       <c r="L16" t="n">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="M16" t="n">
-        <v>-35</v>
+        <v>91</v>
       </c>
       <c r="N16" t="n">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="O16" t="n">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="Q16" t="n">
-        <v>-62</v>
+        <v>91</v>
       </c>
       <c r="R16" t="n">
-        <v>1480</v>
+        <v>5632</v>
       </c>
       <c r="S16" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17">
@@ -2536,58 +2536,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>213</v>
+        <v>458</v>
       </c>
       <c r="C17" t="n">
-        <v>210</v>
+        <v>522</v>
       </c>
       <c r="D17" t="n">
-        <v>199</v>
+        <v>511</v>
       </c>
       <c r="E17" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
       <c r="F17" t="n">
-        <v>165</v>
+        <v>503</v>
       </c>
       <c r="G17" t="n">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="H17" t="n">
-        <v>205</v>
+        <v>455</v>
       </c>
       <c r="I17" t="n">
-        <v>-33</v>
+        <v>314</v>
       </c>
       <c r="J17" t="n">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="K17" t="n">
-        <v>-62</v>
+        <v>267</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="M17" t="n">
-        <v>-35</v>
+        <v>91</v>
       </c>
       <c r="N17" t="n">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="O17" t="n">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="Q17" t="n">
-        <v>-62</v>
+        <v>91</v>
       </c>
       <c r="R17" t="n">
-        <v>1480</v>
+        <v>5632</v>
       </c>
       <c r="S17" t="n">
-        <v>220</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
